--- a/Data/Hall_labels.xlsx
+++ b/Data/Hall_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zurauskj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snehgajiwala/Desktop/NCSA_genomics/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C1618E-0B17-7043-BA02-509BABFF7564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76AEA96-30E3-1E44-B157-0D0D7C504694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="26020" windowHeight="15580" xr2:uid="{36950D3F-901F-EE44-B769-823D7F88EB00}"/>
+    <workbookView xWindow="2780" yWindow="1480" windowWidth="26020" windowHeight="15580" xr2:uid="{36950D3F-901F-EE44-B769-823D7F88EB00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,8 +601,11 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>60</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1225,8 +1228,11 @@
       <c r="A59" s="1">
         <v>2134</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s">
         <v>60</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
